--- a/Documents/Documentation/Modelisations/liste_matos_app_01_2022.xlsx
+++ b/Documents/Documentation/Modelisations/liste_matos_app_01_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loicp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\GitHub\WavContact\Documents\Documentation\Modelisations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F84D9BF-EF9D-4F07-8803-55943E9EA5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A13B2FE-A1B5-403D-A530-B493DFE2CC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B20C3E7-09FF-F345-BEB4-600042D84B5C}"/>
+    <workbookView xWindow="5497" yWindow="-98" windowWidth="16200" windowHeight="9308" xr2:uid="{7B20C3E7-09FF-F345-BEB4-600042D84B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>SAMYANG 85mm T1.5 Cine</t>
   </si>
   <si>
-    <t>SIgma Art 18-35mm F1.8</t>
-  </si>
-  <si>
     <t>Lumix G 14-140mm f/3.5-5-6</t>
   </si>
   <si>
@@ -469,6 +466,9 @@
   </si>
   <si>
     <t>Audio</t>
+  </si>
+  <si>
+    <t>Sigma Art 18-35mm F1.8</t>
   </si>
 </sst>
 </file>
@@ -610,18 +610,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,19 +939,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57859BEE-274C-1646-84EF-9A3FF628DF56}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="32.09765625" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34.3984375" customWidth="1"/>
+    <col min="8" max="8" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -967,13 +967,13 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B2" s="8"/>
       <c r="G2" s="4">
         <v>1</v>
       </c>
@@ -981,11 +981,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D3">
@@ -998,14 +998,14 @@
         <v>2</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D4">
@@ -1018,14 +1018,14 @@
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D5">
@@ -1038,14 +1038,14 @@
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D6">
@@ -1058,43 +1058,42 @@
         <v>5</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="G7" s="4">
         <v>6</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="G8" s="4">
         <v>7</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D9">
@@ -1107,14 +1106,14 @@
         <v>8</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D10">
@@ -1127,14 +1126,14 @@
         <v>9</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D11">
@@ -1147,14 +1146,14 @@
         <v>10</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D12">
@@ -1166,12 +1165,12 @@
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1182,12 +1181,12 @@
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1198,41 +1197,41 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="D17">
         <v>1</v>
       </c>
@@ -1240,15 +1239,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1257,12 +1256,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1271,15 +1270,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1288,12 +1287,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1302,12 +1301,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1316,15 +1315,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1333,12 +1332,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1347,12 +1346,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1361,12 +1360,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1375,15 +1374,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -1392,12 +1391,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -1406,12 +1405,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -1420,12 +1419,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -1434,12 +1433,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1448,12 +1447,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1462,15 +1461,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>65</v>
+        <v>77</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1479,12 +1478,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>66</v>
+        <v>78</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1493,12 +1492,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>67</v>
+        <v>79</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1507,12 +1506,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>68</v>
+        <v>80</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1521,12 +1520,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>69</v>
+        <v>81</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -1535,12 +1534,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>70</v>
+        <v>82</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1549,12 +1548,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>71</v>
+        <v>83</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1563,12 +1562,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1577,12 +1576,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>73</v>
+        <v>84</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1591,12 +1590,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>74</v>
+        <v>85</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -1605,12 +1604,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>75</v>
+        <v>86</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1619,12 +1618,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1633,12 +1632,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>77</v>
+        <v>88</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1647,15 +1646,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="10"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -1664,12 +1663,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -1678,12 +1677,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -1692,12 +1691,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>93</v>
+        <v>102</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1706,12 +1705,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>94</v>
+        <v>103</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1720,12 +1719,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>95</v>
+        <v>104</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -1734,12 +1733,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>95</v>
+        <v>105</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -1748,12 +1747,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
-        <v>96</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1762,12 +1761,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>97</v>
+        <v>106</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1776,12 +1775,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>98</v>
+        <v>107</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -1790,12 +1789,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>99</v>
+        <v>108</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1804,12 +1803,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>100</v>
+        <v>109</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1818,12 +1817,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>101</v>
+        <v>110</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1832,12 +1831,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1846,15 +1845,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="10"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
-        <v>123</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>113</v>
+        <v>122</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -1863,12 +1862,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>114</v>
+        <v>123</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -1877,12 +1876,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
-        <v>115</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -1891,12 +1890,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>116</v>
+        <v>124</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -1905,12 +1904,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1919,12 +1918,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
-        <v>127</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>118</v>
+        <v>126</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -1933,12 +1932,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
-        <v>128</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>119</v>
+        <v>127</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1947,12 +1946,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
-        <v>129</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>120</v>
+        <v>128</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -1961,12 +1960,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
-        <v>130</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>121</v>
+        <v>129</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -1975,12 +1974,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1989,15 +1988,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="10"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
-        <v>134</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2006,12 +2005,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
-        <v>135</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -2020,12 +2019,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -2034,26 +2033,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="10"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="10"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="10"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="10"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="10"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="10"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="10"/>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B82" s="8"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B83" s="8"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B84" s="8"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B85" s="8"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B86" s="8"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B87" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
